--- a/resources/experiment 1/predictions/multiple/RandomForestRegressor/incidence/Enfermedades cardíacas (INC).xlsx
+++ b/resources/experiment 1/predictions/multiple/RandomForestRegressor/incidence/Enfermedades cardíacas (INC).xlsx
@@ -497,2700 +497,2700 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10.06650941715989</v>
+        <v>9.898288557213924</v>
       </c>
       <c r="B2" t="n">
-        <v>0.139718590879367</v>
+        <v>0.07200000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>35.59657351647319</v>
+        <v>36.20399999999998</v>
       </c>
       <c r="D2" t="n">
-        <v>21.38054397062299</v>
+        <v>21.65725373134321</v>
       </c>
       <c r="E2" t="n">
-        <v>1.752311658711659</v>
+        <v>1.480000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>45.05500654237979</v>
+        <v>44.89599999999997</v>
       </c>
       <c r="G2" t="n">
-        <v>19.73559628264295</v>
+        <v>19.49892537313429</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7782782058651039</v>
+        <v>0.7320000000000002</v>
       </c>
       <c r="I2" t="n">
-        <v>54.93116107445621</v>
+        <v>53.04800000000003</v>
       </c>
       <c r="J2" t="n">
-        <v>5.761609369669766</v>
+        <v>5.701990049751238</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00849989063025138</v>
+        <v>0.004</v>
       </c>
       <c r="L2" t="n">
-        <v>22.16288851518852</v>
+        <v>21.57599999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2.599027311511508</v>
+        <v>2.772159203980087</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11.16469682539683</v>
+        <v>11.888</v>
       </c>
       <c r="D3" t="n">
-        <v>4.711405970149249</v>
+        <v>5.237870646766162</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09075557536145769</v>
+        <v>0.1240000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>12.94608022424199</v>
+        <v>14.56000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>4.437944389165271</v>
+        <v>4.910328358208947</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1096691622103387</v>
+        <v>0.08800000000000002</v>
       </c>
       <c r="I3" t="n">
-        <v>14.87631930291931</v>
+        <v>15.80399999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>1.386084999246193</v>
+        <v>1.452119402985074</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.246824891774892</v>
+        <v>6.360000000000005</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.636967541951417</v>
+        <v>3.4800199004975</v>
       </c>
       <c r="B4" t="n">
-        <v>0.001037037037037037</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>14.12337056277056</v>
+        <v>14.344</v>
       </c>
       <c r="D4" t="n">
-        <v>6.488179104477602</v>
+        <v>6.577611940298499</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3574792429792433</v>
+        <v>0.232</v>
       </c>
       <c r="F4" t="n">
-        <v>17.26725384245384</v>
+        <v>15.952</v>
       </c>
       <c r="G4" t="n">
-        <v>6.687863349917092</v>
+        <v>6.593373134328348</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09102853812853814</v>
+        <v>0.1320000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>19.38480819633583</v>
+        <v>18.836</v>
       </c>
       <c r="J4" t="n">
-        <v>1.904781797362391</v>
+        <v>1.9305671641791</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>8.05431524771525</v>
+        <v>8.667999999999996</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2.716640848996687</v>
+        <v>2.890606965174121</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>10.33861847041847</v>
+        <v>11.172</v>
       </c>
       <c r="D5" t="n">
-        <v>6.031688327482353</v>
+        <v>6.413233830845765</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2511559348059346</v>
+        <v>0.2839999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>16.35108760016608</v>
+        <v>17.268</v>
       </c>
       <c r="G5" t="n">
-        <v>5.865139161336179</v>
+        <v>6.29301492537312</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1499476082740788</v>
+        <v>0.104</v>
       </c>
       <c r="I5" t="n">
-        <v>18.62326387192099</v>
+        <v>18.668</v>
       </c>
       <c r="J5" t="n">
-        <v>1.545073568664612</v>
+        <v>1.669870646766167</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>6.690952035002034</v>
+        <v>6.984000000000002</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6.577781558032106</v>
+        <v>6.40805970149253</v>
       </c>
       <c r="B6" t="n">
-        <v>0.08550904643458815</v>
+        <v>0.06800000000000002</v>
       </c>
       <c r="C6" t="n">
-        <v>24.15190303030303</v>
+        <v>24.49599999999998</v>
       </c>
       <c r="D6" t="n">
-        <v>13.12543615257047</v>
+        <v>13.31440796019898</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7852246235246229</v>
+        <v>0.8759999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>30.85130507786561</v>
+        <v>29.76399999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>12.47030683810384</v>
+        <v>12.37976119402983</v>
       </c>
       <c r="H6" t="n">
-        <v>0.523188474810214</v>
+        <v>0.6160000000000003</v>
       </c>
       <c r="I6" t="n">
-        <v>36.49580552143546</v>
+        <v>36.38800000000003</v>
       </c>
       <c r="J6" t="n">
-        <v>3.812985674441636</v>
+        <v>3.835363184079594</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="L6" t="n">
-        <v>14.51080158730159</v>
+        <v>15.60399999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>9.402355160558225</v>
+        <v>9.50330348258705</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1072691553605511</v>
+        <v>0.1520000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>35.66092034632033</v>
+        <v>34.45199999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>18.90222978149545</v>
+        <v>19.28189054726368</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8346194381796967</v>
+        <v>0.9560000000000002</v>
       </c>
       <c r="F7" t="n">
-        <v>42.74837787658962</v>
+        <v>42.30400000000002</v>
       </c>
       <c r="G7" t="n">
-        <v>18.67460378144818</v>
+        <v>18.38051741293532</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5347224136650943</v>
+        <v>0.4999999999999997</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24243118965227</v>
+        <v>52.632</v>
       </c>
       <c r="J7" t="n">
-        <v>4.865960364842452</v>
+        <v>5.174567164179091</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0188877613995463</v>
+        <v>0.02</v>
       </c>
       <c r="L7" t="n">
-        <v>19.78637025937025</v>
+        <v>21.556</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>12.77930009493103</v>
+        <v>12.67639800995023</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2092850226599448</v>
+        <v>0.2519999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>47.9669111630464</v>
+        <v>47.82000000000002</v>
       </c>
       <c r="D8" t="n">
-        <v>23.66436318407953</v>
+        <v>23.13982089552232</v>
       </c>
       <c r="E8" t="n">
-        <v>1.41395166402225</v>
+        <v>1.036</v>
       </c>
       <c r="F8" t="n">
-        <v>50.80748999590595</v>
+        <v>50.188</v>
       </c>
       <c r="G8" t="n">
-        <v>25.959938388341</v>
+        <v>25.76031840796011</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5236833333333333</v>
+        <v>0.9720000000000002</v>
       </c>
       <c r="I8" t="n">
-        <v>66.73378880667583</v>
+        <v>67.10800000000003</v>
       </c>
       <c r="J8" t="n">
-        <v>7.078051845532278</v>
+        <v>7.131124378109448</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01081481481481481</v>
+        <v>0.02</v>
       </c>
       <c r="L8" t="n">
-        <v>26.82908127362832</v>
+        <v>27.956</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.935087550286919</v>
+        <v>5.959303482587055</v>
       </c>
       <c r="B9" t="n">
-        <v>0.03096096040755483</v>
+        <v>0.02</v>
       </c>
       <c r="C9" t="n">
-        <v>21.68263376623376</v>
+        <v>21.944</v>
       </c>
       <c r="D9" t="n">
-        <v>12.2857479270315</v>
+        <v>12.35514427860695</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7916934065934063</v>
+        <v>0.7120000000000002</v>
       </c>
       <c r="F9" t="n">
-        <v>26.75752665950035</v>
+        <v>28.01600000000002</v>
       </c>
       <c r="G9" t="n">
-        <v>11.22094780067914</v>
+        <v>11.46708457711441</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5125763038893475</v>
+        <v>0.4359999999999997</v>
       </c>
       <c r="I9" t="n">
-        <v>33.66561813938726</v>
+        <v>32.136</v>
       </c>
       <c r="J9" t="n">
-        <v>3.207322159046029</v>
+        <v>3.264557213930339</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>14.30474194324194</v>
+        <v>14.324</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12.92907820018233</v>
+        <v>12.60696517412935</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1493621064085895</v>
+        <v>0.196</v>
       </c>
       <c r="C10" t="n">
-        <v>47.83633259953905</v>
+        <v>46.56400000000004</v>
       </c>
       <c r="D10" t="n">
-        <v>25.91234979114934</v>
+        <v>26.11822885572131</v>
       </c>
       <c r="E10" t="n">
-        <v>1.147451797984483</v>
+        <v>1.388</v>
       </c>
       <c r="F10" t="n">
-        <v>56.28850781585388</v>
+        <v>56.988</v>
       </c>
       <c r="G10" t="n">
-        <v>24.72078185659273</v>
+        <v>24.576199004975</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6343234746029194</v>
+        <v>0.5599999999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>68.06485222270095</v>
+        <v>67.65600000000002</v>
       </c>
       <c r="J10" t="n">
-        <v>6.826961557030938</v>
+        <v>6.807522388059694</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03369008263166479</v>
+        <v>0.004</v>
       </c>
       <c r="L10" t="n">
-        <v>25.66735913976676</v>
+        <v>27.248</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11.6257635793159</v>
+        <v>11.58817910447761</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2333777777777774</v>
+        <v>0.2439999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>40.72605521367521</v>
+        <v>41.81999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>23.83266890331879</v>
+        <v>23.91476616915411</v>
       </c>
       <c r="E11" t="n">
-        <v>1.404309066641421</v>
+        <v>1.412</v>
       </c>
       <c r="F11" t="n">
-        <v>51.18185553319969</v>
+        <v>50.852</v>
       </c>
       <c r="G11" t="n">
-        <v>22.45699768189288</v>
+        <v>22.28449751243771</v>
       </c>
       <c r="H11" t="n">
-        <v>0.873296112555451</v>
+        <v>0.9240000000000004</v>
       </c>
       <c r="I11" t="n">
-        <v>61.98588227675762</v>
+        <v>61.02799999999998</v>
       </c>
       <c r="J11" t="n">
-        <v>6.174174225458337</v>
+        <v>6.192417910447749</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0018943115364168</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>22.9513210974211</v>
+        <v>23.06400000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8.64558620691705</v>
+        <v>8.434845771144266</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2708843711843708</v>
+        <v>0.268</v>
       </c>
       <c r="C12" t="n">
-        <v>28.2698603174603</v>
+        <v>28.57599999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>18.85506235489218</v>
+        <v>18.44149253731341</v>
       </c>
       <c r="E12" t="n">
-        <v>1.059177777777778</v>
+        <v>0.8080000000000004</v>
       </c>
       <c r="F12" t="n">
-        <v>41.55836947126947</v>
+        <v>41.56400000000001</v>
       </c>
       <c r="G12" t="n">
-        <v>18.56062023217247</v>
+        <v>17.89701492537314</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4798520378314494</v>
+        <v>0.4399999999999998</v>
       </c>
       <c r="I12" t="n">
-        <v>48.5148828893329</v>
+        <v>46.172</v>
       </c>
       <c r="J12" t="n">
-        <v>4.702513606570318</v>
+        <v>4.544577114427855</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02020672268907563</v>
+        <v>0.028</v>
       </c>
       <c r="L12" t="n">
-        <v>18.98164115144115</v>
+        <v>18.136</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>12.43151463191731</v>
+        <v>12.77036815920398</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3613777777777774</v>
+        <v>0.3039999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>46.23403396760616</v>
+        <v>45.43999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>26.53667928235932</v>
+        <v>26.16995024875608</v>
       </c>
       <c r="E13" t="n">
-        <v>1.986057407407408</v>
+        <v>2.103999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>57.23927482365715</v>
+        <v>56.84000000000002</v>
       </c>
       <c r="G13" t="n">
-        <v>24.81966943681369</v>
+        <v>24.83086567164166</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9802273201045165</v>
+        <v>1.076</v>
       </c>
       <c r="I13" t="n">
-        <v>66.81737324659362</v>
+        <v>68.52799999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>6.667210257074644</v>
+        <v>6.87942288557213</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02526433970937548</v>
+        <v>0.012</v>
       </c>
       <c r="L13" t="n">
-        <v>26.67209287440996</v>
+        <v>26.23199999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11.85771187638174</v>
+        <v>11.44983084577114</v>
       </c>
       <c r="B14" t="n">
-        <v>0.2639296343096281</v>
+        <v>0.208</v>
       </c>
       <c r="C14" t="n">
-        <v>43.39062400765729</v>
+        <v>43.83999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>25.30114225194699</v>
+        <v>25.64218905472623</v>
       </c>
       <c r="E14" t="n">
-        <v>1.309285053617406</v>
+        <v>1.512</v>
       </c>
       <c r="F14" t="n">
-        <v>54.38763231485429</v>
+        <v>54.24800000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>24.24593349292473</v>
+        <v>23.99890547263668</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9540273699631867</v>
+        <v>1.024</v>
       </c>
       <c r="I14" t="n">
-        <v>65.3671804867883</v>
+        <v>63.84400000000002</v>
       </c>
       <c r="J14" t="n">
-        <v>6.67157793140486</v>
+        <v>6.782726368159191</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03790011810367293</v>
+        <v>0.06000000000000002</v>
       </c>
       <c r="L14" t="n">
-        <v>26.81771277366223</v>
+        <v>27.38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.51354400583157</v>
+        <v>3.982786069651731</v>
       </c>
       <c r="B15" t="n">
-        <v>0.003333333333333334</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>14.73533333333333</v>
+        <v>15.868</v>
       </c>
       <c r="D15" t="n">
-        <v>7.417058635394441</v>
+        <v>7.915363184079592</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6469174603174592</v>
+        <v>0.6440000000000003</v>
       </c>
       <c r="F15" t="n">
-        <v>19.00478254780442</v>
+        <v>19.908</v>
       </c>
       <c r="G15" t="n">
-        <v>6.751497875700839</v>
+        <v>7.382308457711435</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1097809523809524</v>
+        <v>0.1400000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>22.6640362721472</v>
+        <v>23.444</v>
       </c>
       <c r="J15" t="n">
-        <v>2.0306896904367</v>
+        <v>2.100995024875614</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>8.32825555555557</v>
+        <v>9.171999999999995</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.573672105295786</v>
+        <v>6.564079601990041</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04629234111261976</v>
+        <v>0.028</v>
       </c>
       <c r="C16" t="n">
-        <v>24.01420432900433</v>
+        <v>24.73999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>13.38837597725657</v>
+        <v>13.8764975124378</v>
       </c>
       <c r="E16" t="n">
-        <v>0.77637912087912</v>
+        <v>1.127999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>30.97707357603411</v>
+        <v>30.76</v>
       </c>
       <c r="G16" t="n">
-        <v>12.09253837091597</v>
+        <v>12.2017910447761</v>
       </c>
       <c r="H16" t="n">
-        <v>0.3978975437605874</v>
+        <v>0.4119999999999999</v>
       </c>
       <c r="I16" t="n">
-        <v>36.55660552143546</v>
+        <v>35.19600000000002</v>
       </c>
       <c r="J16" t="n">
-        <v>3.731843101591599</v>
+        <v>3.737810945273624</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>14.94992049062049</v>
+        <v>15.46</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>8.504355785570919</v>
+        <v>7.934368159203975</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1041799964034722</v>
+        <v>0.124</v>
       </c>
       <c r="C17" t="n">
-        <v>28.52775115995114</v>
+        <v>27.50399999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>19.51233034825866</v>
+        <v>18.26963184079598</v>
       </c>
       <c r="E17" t="n">
-        <v>1.367713227513226</v>
+        <v>1.392</v>
       </c>
       <c r="F17" t="n">
-        <v>41.20522661412661</v>
+        <v>39.21600000000002</v>
       </c>
       <c r="G17" t="n">
-        <v>17.86826796895747</v>
+        <v>16.74179104477612</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7016580365850925</v>
+        <v>0.6800000000000003</v>
       </c>
       <c r="I17" t="n">
-        <v>48.49209149739151</v>
+        <v>45.74400000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>4.964185023296211</v>
+        <v>4.606009950248747</v>
       </c>
       <c r="K17" t="n">
-        <v>0.187444925444925</v>
+        <v>0.1</v>
       </c>
       <c r="L17" t="n">
-        <v>20.31118497058498</v>
+        <v>19.16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.636967541951417</v>
+        <v>3.463184079601978</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0004444444444444444</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>15.34256666666667</v>
+        <v>14.724</v>
       </c>
       <c r="D18" t="n">
-        <v>6.488179104477602</v>
+        <v>6.410467661691534</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2318095238095238</v>
+        <v>0.184</v>
       </c>
       <c r="F18" t="n">
-        <v>17.03231098531099</v>
+        <v>15.48799999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>6.694196351575467</v>
+        <v>6.667144278606957</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1561666666666666</v>
+        <v>0.1600000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>19.38480819633583</v>
+        <v>18.89200000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>1.933742162204845</v>
+        <v>1.93783084577114</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>8.578204136604143</v>
+        <v>8.863999999999995</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11.90284607237422</v>
+        <v>11.67355223880596</v>
       </c>
       <c r="B19" t="n">
-        <v>0.4194444444444437</v>
+        <v>0.3999999999999998</v>
       </c>
       <c r="C19" t="n">
-        <v>40.9970761904762</v>
+        <v>42.15600000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>24.51970669631629</v>
+        <v>24.73239800995016</v>
       </c>
       <c r="E19" t="n">
-        <v>1.516337819914293</v>
+        <v>1.439999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>53.19753884862062</v>
+        <v>54.62800000000002</v>
       </c>
       <c r="G19" t="n">
-        <v>22.92554770878651</v>
+        <v>23.75504477611938</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6059506325878252</v>
+        <v>0.5720000000000002</v>
       </c>
       <c r="I19" t="n">
-        <v>62.59513068085611</v>
+        <v>62.916</v>
       </c>
       <c r="J19" t="n">
-        <v>6.073748613234375</v>
+        <v>6.158069651741283</v>
       </c>
       <c r="K19" t="n">
-        <v>0.01598888888888889</v>
+        <v>0.052</v>
       </c>
       <c r="L19" t="n">
-        <v>25.67004684944683</v>
+        <v>25.76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6.684360228173463</v>
+        <v>6.708139303482573</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02419566462438316</v>
+        <v>0.09200000000000004</v>
       </c>
       <c r="C20" t="n">
-        <v>22.92972063492064</v>
+        <v>24.62400000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>14.86119303482586</v>
+        <v>15.09806965174129</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8075516039516027</v>
+        <v>0.9240000000000004</v>
       </c>
       <c r="F20" t="n">
-        <v>32.43583643789994</v>
+        <v>33.33600000000001</v>
       </c>
       <c r="G20" t="n">
-        <v>14.79828678828082</v>
+        <v>14.49399004975123</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5301222079852514</v>
+        <v>0.4639999999999996</v>
       </c>
       <c r="I20" t="n">
-        <v>38.99940189544157</v>
+        <v>39.52</v>
       </c>
       <c r="J20" t="n">
-        <v>3.875112354892198</v>
+        <v>3.88985074626865</v>
       </c>
       <c r="K20" t="n">
-        <v>0.02780297088532384</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>16.23383458393458</v>
+        <v>15.64800000000001</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4.75131829950038</v>
+        <v>4.75687562189054</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03099352226720648</v>
+        <v>0.012</v>
       </c>
       <c r="C21" t="n">
-        <v>17.34533333333334</v>
+        <v>17.28800000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>10.19101061359867</v>
+        <v>9.866268656716413</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6865804232804228</v>
+        <v>0.6120000000000002</v>
       </c>
       <c r="F21" t="n">
-        <v>24.72479629673159</v>
+        <v>23.97600000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>9.090247058358983</v>
+        <v>9.322885572139302</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1391166666666667</v>
+        <v>0.09600000000000002</v>
       </c>
       <c r="I21" t="n">
-        <v>29.2070777426392</v>
+        <v>27.576</v>
       </c>
       <c r="J21" t="n">
-        <v>2.638214969014564</v>
+        <v>2.527621890547251</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>10.70367407407407</v>
+        <v>10.408</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>12.75661613236193</v>
+        <v>12.62061691542289</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2452633824300267</v>
+        <v>0.2119999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>47.51587268086296</v>
+        <v>47.50400000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>26.7808485570328</v>
+        <v>26.80515422885561</v>
       </c>
       <c r="E22" t="n">
-        <v>1.502716091316091</v>
+        <v>1.688</v>
       </c>
       <c r="F22" t="n">
-        <v>56.54017856326516</v>
+        <v>56.36799999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>24.57258769850177</v>
+        <v>24.67323383084566</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9057396595942151</v>
+        <v>0.9479999999999993</v>
       </c>
       <c r="I22" t="n">
-        <v>68.04807338763318</v>
+        <v>67.59600000000002</v>
       </c>
       <c r="J22" t="n">
-        <v>6.930626874070881</v>
+        <v>7.035502487562179</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1596846968086578</v>
+        <v>0.18</v>
       </c>
       <c r="L22" t="n">
-        <v>27.51111723031396</v>
+        <v>28.404</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.589162870496968</v>
+        <v>3.851721393034814</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0009333333333333334</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>16.40657142857144</v>
+        <v>16.68800000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>7.680624259654097</v>
+        <v>8.236019900497499</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5794190476190479</v>
+        <v>0.6240000000000002</v>
       </c>
       <c r="F23" t="n">
-        <v>19.51262585439252</v>
+        <v>20.604</v>
       </c>
       <c r="G23" t="n">
-        <v>8.063054063018233</v>
+        <v>8.281014925373125</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1893320346320347</v>
+        <v>0.176</v>
       </c>
       <c r="I23" t="n">
-        <v>23.14926792415531</v>
+        <v>24.04800000000001</v>
       </c>
       <c r="J23" t="n">
-        <v>2.141430758903881</v>
+        <v>2.25659701492536</v>
       </c>
       <c r="K23" t="n">
-        <v>0.025</v>
+        <v>0.012</v>
       </c>
       <c r="L23" t="n">
-        <v>9.545567676767678</v>
+        <v>10.06399999999999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>6.630709205509006</v>
+        <v>6.656218905472622</v>
       </c>
       <c r="B24" t="n">
-        <v>0.07726623551886705</v>
+        <v>0.052</v>
       </c>
       <c r="C24" t="n">
-        <v>23.33462972582972</v>
+        <v>23.85199999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>13.34846387112058</v>
+        <v>14.04937313432834</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7272870573870563</v>
+        <v>0.9240000000000004</v>
       </c>
       <c r="F24" t="n">
-        <v>31.46496442407495</v>
+        <v>31.82800000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>12.4388175076996</v>
+        <v>13.16837810945272</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3443112078742513</v>
+        <v>0.3839999999999998</v>
       </c>
       <c r="I24" t="n">
-        <v>36.57962370325364</v>
+        <v>37.068</v>
       </c>
       <c r="J24" t="n">
-        <v>3.592931931252816</v>
+        <v>3.673830845771137</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>14.56132222222222</v>
+        <v>14.924</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.312674857248296</v>
+        <v>5.333950248756205</v>
       </c>
       <c r="B25" t="n">
-        <v>0.05303718571876467</v>
+        <v>0.012</v>
       </c>
       <c r="C25" t="n">
-        <v>20.81900104405399</v>
+        <v>20.156</v>
       </c>
       <c r="D25" t="n">
-        <v>10.94764012118339</v>
+        <v>10.80364179104476</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5435973586421158</v>
+        <v>0.5840000000000003</v>
       </c>
       <c r="F25" t="n">
-        <v>25.44588806291175</v>
+        <v>25.27199999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>10.28863233041142</v>
+        <v>10.02101492537312</v>
       </c>
       <c r="H25" t="n">
-        <v>0.252736890645586</v>
+        <v>0.2199999999999998</v>
       </c>
       <c r="I25" t="n">
-        <v>28.6547737107337</v>
+        <v>28.27200000000002</v>
       </c>
       <c r="J25" t="n">
-        <v>2.759719758351091</v>
+        <v>2.827383084577106</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>11.12343434343435</v>
+        <v>11.57999999999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>4.713857271308009</v>
+        <v>4.673651741293519</v>
       </c>
       <c r="B26" t="n">
-        <v>0.04775608465608466</v>
+        <v>0.016</v>
       </c>
       <c r="C26" t="n">
-        <v>19.34613333333333</v>
+        <v>18.89599999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>9.888271120587531</v>
+        <v>9.39727363184079</v>
       </c>
       <c r="E26" t="n">
-        <v>0.7038793650793659</v>
+        <v>0.768</v>
       </c>
       <c r="F26" t="n">
-        <v>23.95992159735689</v>
+        <v>23.324</v>
       </c>
       <c r="G26" t="n">
-        <v>9.178721079786238</v>
+        <v>9.106527363184062</v>
       </c>
       <c r="H26" t="n">
-        <v>0.3375333333333333</v>
+        <v>0.3560000000000001</v>
       </c>
       <c r="I26" t="n">
-        <v>29.22566940930587</v>
+        <v>29.27999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>2.990176119402973</v>
+        <v>2.91438805970148</v>
       </c>
       <c r="K26" t="n">
-        <v>0.009333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>12.32348123728124</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>12.55211129534272</v>
+        <v>12.81791044776118</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4114999999999992</v>
+        <v>0.3400000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>45.70672820512821</v>
+        <v>45.244</v>
       </c>
       <c r="D27" t="n">
-        <v>26.37113444254549</v>
+        <v>26.14318407960188</v>
       </c>
       <c r="E27" t="n">
-        <v>1.405969841269842</v>
+        <v>1.372</v>
       </c>
       <c r="F27" t="n">
-        <v>57.12565681554969</v>
+        <v>57.04000000000002</v>
       </c>
       <c r="G27" t="n">
-        <v>24.94102193529695</v>
+        <v>25.20676616915412</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8735491997773361</v>
+        <v>0.9119999999999996</v>
       </c>
       <c r="I27" t="n">
-        <v>68.12046948043964</v>
+        <v>69.81200000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>7.062815467727401</v>
+        <v>7.236616915422875</v>
       </c>
       <c r="K27" t="n">
-        <v>0.146790407837776</v>
+        <v>0.1400000000000001</v>
       </c>
       <c r="L27" t="n">
-        <v>29.17097567498581</v>
+        <v>30.008</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>9.406232796377589</v>
+        <v>9.182388059701481</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1475380948544158</v>
+        <v>0.18</v>
       </c>
       <c r="C28" t="n">
-        <v>35.33770634855341</v>
+        <v>34.56</v>
       </c>
       <c r="D28" t="n">
-        <v>20.6294953249624</v>
+        <v>20.58855721393025</v>
       </c>
       <c r="E28" t="n">
-        <v>1.276050410809235</v>
+        <v>1.14</v>
       </c>
       <c r="F28" t="n">
-        <v>43.16643701559877</v>
+        <v>43.50399999999998</v>
       </c>
       <c r="G28" t="n">
-        <v>19.7502979241192</v>
+        <v>19.94342288557203</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6711124310907587</v>
+        <v>0.6400000000000002</v>
       </c>
       <c r="I28" t="n">
-        <v>53.48118513578703</v>
+        <v>51.76799999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>5.408824971104067</v>
+        <v>5.407482587064663</v>
       </c>
       <c r="K28" t="n">
-        <v>0.007379448621553886</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>22.07873163133164</v>
+        <v>22.83599999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4.103013968511235</v>
+        <v>4.130447761194017</v>
       </c>
       <c r="B29" t="n">
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>16.1672380952381</v>
+        <v>16.85600000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>7.994210376687981</v>
+        <v>8.348338308457706</v>
       </c>
       <c r="E29" t="n">
-        <v>0.50164126984127</v>
+        <v>0.472</v>
       </c>
       <c r="F29" t="n">
-        <v>19.62970945227612</v>
+        <v>20.31199999999998</v>
       </c>
       <c r="G29" t="n">
-        <v>8.096469098949679</v>
+        <v>8.439999999999984</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1338047619047618</v>
+        <v>0.18</v>
       </c>
       <c r="I29" t="n">
-        <v>23.73722953754192</v>
+        <v>24.592</v>
       </c>
       <c r="J29" t="n">
-        <v>2.287382666034897</v>
+        <v>2.409592039800988</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>10.7306222222222</v>
+        <v>10.692</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8.433060838736463</v>
+        <v>8.148457711442775</v>
       </c>
       <c r="B30" t="n">
-        <v>0.1782887934764018</v>
+        <v>0.252</v>
       </c>
       <c r="C30" t="n">
-        <v>29.94660079365079</v>
+        <v>30.256</v>
       </c>
       <c r="D30" t="n">
-        <v>18.81033972992181</v>
+        <v>17.56043781094527</v>
       </c>
       <c r="E30" t="n">
-        <v>1.903242857142855</v>
+        <v>1.712</v>
       </c>
       <c r="F30" t="n">
-        <v>39.68417082209731</v>
+        <v>38.30400000000002</v>
       </c>
       <c r="G30" t="n">
-        <v>16.23731915537934</v>
+        <v>15.58083582089551</v>
       </c>
       <c r="H30" t="n">
-        <v>0.6846591804982665</v>
+        <v>0.6200000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>46.04676418104187</v>
+        <v>43.98399999999999</v>
       </c>
       <c r="J30" t="n">
-        <v>4.962317361604667</v>
+        <v>4.767502487562176</v>
       </c>
       <c r="K30" t="n">
-        <v>0.004044444444444444</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>20.45472782772784</v>
+        <v>19.396</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>11.86506919579953</v>
+        <v>12.30805970149253</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01566870825310454</v>
+        <v>0.116</v>
       </c>
       <c r="C31" t="n">
-        <v>44.37170295554119</v>
+        <v>44.108</v>
       </c>
       <c r="D31" t="n">
-        <v>23.78851227628081</v>
+        <v>24.45359203980091</v>
       </c>
       <c r="E31" t="n">
-        <v>1.41969395623451</v>
+        <v>1.352</v>
       </c>
       <c r="F31" t="n">
-        <v>52.9817226324918</v>
+        <v>52.02</v>
       </c>
       <c r="G31" t="n">
-        <v>24.37786534820482</v>
+        <v>24.46985074626853</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5867724942223246</v>
+        <v>0.7079999999999995</v>
       </c>
       <c r="I31" t="n">
-        <v>65.44696670767975</v>
+        <v>67.59200000000001</v>
       </c>
       <c r="J31" t="n">
-        <v>6.625065696658226</v>
+        <v>6.493651741293527</v>
       </c>
       <c r="K31" t="n">
-        <v>0.04479546597193659</v>
+        <v>0.06800000000000002</v>
       </c>
       <c r="L31" t="n">
-        <v>24.60665901135903</v>
+        <v>26.88000000000001</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>12.26117176009905</v>
+        <v>11.60206965174129</v>
       </c>
       <c r="B32" t="n">
-        <v>0.2518948865435115</v>
+        <v>0.248</v>
       </c>
       <c r="C32" t="n">
-        <v>46.07762033072771</v>
+        <v>43.28800000000002</v>
       </c>
       <c r="D32" t="n">
-        <v>25.94246493066751</v>
+        <v>25.36342288557207</v>
       </c>
       <c r="E32" t="n">
-        <v>1.807589695272048</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>54.74342888140881</v>
+        <v>55.43200000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>24.26649848468954</v>
+        <v>24.98756218905465</v>
       </c>
       <c r="H32" t="n">
-        <v>0.8771557054828191</v>
+        <v>0.9080000000000001</v>
       </c>
       <c r="I32" t="n">
-        <v>66.42600260740413</v>
+        <v>66.99999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>6.475237878926769</v>
+        <v>6.522049751243771</v>
       </c>
       <c r="K32" t="n">
-        <v>0.05216885366095893</v>
+        <v>0.08000000000000002</v>
       </c>
       <c r="L32" t="n">
-        <v>25.30898662405069</v>
+        <v>27.296</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>11.90630078369701</v>
+        <v>11.53004975124377</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2588695937655776</v>
+        <v>0.2599999999999998</v>
       </c>
       <c r="C33" t="n">
-        <v>43.25263814907143</v>
+        <v>43.21599999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>25.2185794274142</v>
+        <v>24.99890547263673</v>
       </c>
       <c r="E33" t="n">
-        <v>1.516380489771667</v>
+        <v>1.58</v>
       </c>
       <c r="F33" t="n">
-        <v>55.00501783099666</v>
+        <v>54.15999999999998</v>
       </c>
       <c r="G33" t="n">
-        <v>24.574412650816</v>
+        <v>24.43054726368146</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8118457063442048</v>
+        <v>0.9039999999999998</v>
       </c>
       <c r="I33" t="n">
-        <v>65.5852335341428</v>
+        <v>63.79999999999999</v>
       </c>
       <c r="J33" t="n">
-        <v>6.561138155434884</v>
+        <v>6.475860696517401</v>
       </c>
       <c r="K33" t="n">
-        <v>0.01606566151441084</v>
+        <v>0.02</v>
       </c>
       <c r="L33" t="n">
-        <v>26.73555138733661</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>10.62682649249333</v>
+        <v>11.16173134328357</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3583954248366007</v>
+        <v>0.2680000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>43.53999999999999</v>
+        <v>43.596</v>
       </c>
       <c r="D34" t="n">
-        <v>22.15657285136081</v>
+        <v>22.45042786069642</v>
       </c>
       <c r="E34" t="n">
-        <v>1.159887301587301</v>
+        <v>1.236</v>
       </c>
       <c r="F34" t="n">
-        <v>47.45962528608302</v>
+        <v>47.57200000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>22.51363018242111</v>
+        <v>21.78660696517406</v>
       </c>
       <c r="H34" t="n">
-        <v>0.7665058804572458</v>
+        <v>0.8200000000000003</v>
       </c>
       <c r="I34" t="n">
-        <v>58.2478828829668</v>
+        <v>59.87600000000002</v>
       </c>
       <c r="J34" t="n">
-        <v>5.739379353233829</v>
+        <v>6.011920398009948</v>
       </c>
       <c r="K34" t="n">
-        <v>0.07534612794612792</v>
+        <v>0.024</v>
       </c>
       <c r="L34" t="n">
-        <v>23.39042936507937</v>
+        <v>25.42799999999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6.675905359658892</v>
+        <v>6.893711442786054</v>
       </c>
       <c r="B35" t="n">
-        <v>0.1079456449982765</v>
+        <v>0.09600000000000003</v>
       </c>
       <c r="C35" t="n">
-        <v>24.26556623376624</v>
+        <v>24.036</v>
       </c>
       <c r="D35" t="n">
-        <v>14.11508410329305</v>
+        <v>14.58159203980099</v>
       </c>
       <c r="E35" t="n">
-        <v>1.211333333333331</v>
+        <v>1.120000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>32.3684296280431</v>
+        <v>32.68400000000002</v>
       </c>
       <c r="G35" t="n">
-        <v>12.57369268735687</v>
+        <v>13.7142487562189</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2929588269218701</v>
+        <v>0.3279999999999997</v>
       </c>
       <c r="I35" t="n">
-        <v>37.19891058205939</v>
+        <v>38.11999999999998</v>
       </c>
       <c r="J35" t="n">
-        <v>3.687459969632346</v>
+        <v>3.760756218905465</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="L35" t="n">
-        <v>15.08033645983646</v>
+        <v>15.52</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>9.227427697694946</v>
+        <v>9.237810945273615</v>
       </c>
       <c r="B36" t="n">
-        <v>0.1176220233293932</v>
+        <v>0.1440000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>34.58816796536796</v>
+        <v>33.72799999999998</v>
       </c>
       <c r="D36" t="n">
-        <v>18.99346297085997</v>
+        <v>19.26175124378107</v>
       </c>
       <c r="E36" t="n">
-        <v>1.443795878195878</v>
+        <v>1.448</v>
       </c>
       <c r="F36" t="n">
-        <v>42.85353131574306</v>
+        <v>43.268</v>
       </c>
       <c r="G36" t="n">
-        <v>18.93506926619374</v>
+        <v>19.02045771144277</v>
       </c>
       <c r="H36" t="n">
-        <v>0.6314924855997275</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>51.13691071013179</v>
+        <v>49.98399999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>4.699425704809284</v>
+        <v>4.928736318407946</v>
       </c>
       <c r="K36" t="n">
-        <v>0.009496887750777913</v>
+        <v>0.004</v>
       </c>
       <c r="L36" t="n">
-        <v>20.01509724349723</v>
+        <v>20.22</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5.029610730562959</v>
+        <v>4.972079601990042</v>
       </c>
       <c r="B37" t="n">
-        <v>0.002208475108246275</v>
+        <v>0.008</v>
       </c>
       <c r="C37" t="n">
-        <v>18.55333333333333</v>
+        <v>19.968</v>
       </c>
       <c r="D37" t="n">
-        <v>10.89070646766168</v>
+        <v>10.71213930348257</v>
       </c>
       <c r="E37" t="n">
-        <v>0.5628741147741145</v>
+        <v>0.4879999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>24.71060718954249</v>
+        <v>25.35599999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>11.19276417910446</v>
+        <v>10.95176119402984</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4363640415140415</v>
+        <v>0.3400000000000001</v>
       </c>
       <c r="I37" t="n">
-        <v>30.83988590543444</v>
+        <v>31.104</v>
       </c>
       <c r="J37" t="n">
-        <v>2.860831386925011</v>
+        <v>2.865810945273621</v>
       </c>
       <c r="K37" t="n">
-        <v>0.001333333333333334</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>11.4944380952381</v>
+        <v>11.792</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>11.88507631333331</v>
+        <v>11.47323383084578</v>
       </c>
       <c r="B38" t="n">
-        <v>0.1821901436046757</v>
+        <v>0.128</v>
       </c>
       <c r="C38" t="n">
-        <v>39.43101858141858</v>
+        <v>38.84</v>
       </c>
       <c r="D38" t="n">
-        <v>25.85019236540457</v>
+        <v>26.38441791044761</v>
       </c>
       <c r="E38" t="n">
-        <v>1.720394151600032</v>
+        <v>1.896</v>
       </c>
       <c r="F38" t="n">
-        <v>54.34993753802497</v>
+        <v>55.124</v>
       </c>
       <c r="G38" t="n">
-        <v>24.93650656931045</v>
+        <v>24.71806965174122</v>
       </c>
       <c r="H38" t="n">
-        <v>1.000135867494843</v>
+        <v>1.004</v>
       </c>
       <c r="I38" t="n">
-        <v>65.79779703934139</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="J38" t="n">
-        <v>6.880665166643371</v>
+        <v>6.854626865671636</v>
       </c>
       <c r="K38" t="n">
-        <v>0.1839895696895693</v>
+        <v>0.168</v>
       </c>
       <c r="L38" t="n">
-        <v>29.44161856617431</v>
+        <v>28.664</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>9.306595016978587</v>
+        <v>9.273353233830839</v>
       </c>
       <c r="B39" t="n">
-        <v>0.238106593406593</v>
+        <v>0.2</v>
       </c>
       <c r="C39" t="n">
-        <v>33.33999999999997</v>
+        <v>32.87999999999997</v>
       </c>
       <c r="D39" t="n">
-        <v>18.90474726368157</v>
+        <v>18.76447761194029</v>
       </c>
       <c r="E39" t="n">
-        <v>1.234842857142858</v>
+        <v>0.98</v>
       </c>
       <c r="F39" t="n">
-        <v>41.60422417212416</v>
+        <v>41.764</v>
       </c>
       <c r="G39" t="n">
-        <v>18.65830956329463</v>
+        <v>17.89100497512437</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5693532643826766</v>
+        <v>0.5640000000000002</v>
       </c>
       <c r="I39" t="n">
-        <v>48.55477177822178</v>
+        <v>47.528</v>
       </c>
       <c r="J39" t="n">
-        <v>5.322951907131007</v>
+        <v>5.077054726368146</v>
       </c>
       <c r="K39" t="n">
-        <v>0.05994005602240897</v>
+        <v>0.112</v>
       </c>
       <c r="L39" t="n">
-        <v>21.80653333333334</v>
+        <v>21.112</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.768978628653549</v>
+        <v>3.696557213930331</v>
       </c>
       <c r="B40" t="n">
-        <v>0.008412698412698413</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>14.01269090909091</v>
+        <v>14.136</v>
       </c>
       <c r="D40" t="n">
-        <v>8.780415336018304</v>
+        <v>8.436437810945261</v>
       </c>
       <c r="E40" t="n">
-        <v>0.2840686961186961</v>
+        <v>0.2559999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>21.08601185666185</v>
+        <v>21.132</v>
       </c>
       <c r="G40" t="n">
-        <v>8.147060322724991</v>
+        <v>7.94571144278606</v>
       </c>
       <c r="H40" t="n">
-        <v>0.09863606077445081</v>
+        <v>0.1640000000000001</v>
       </c>
       <c r="I40" t="n">
-        <v>24.08192163518456</v>
+        <v>24.24400000000001</v>
       </c>
       <c r="J40" t="n">
-        <v>2.200688566132589</v>
+        <v>2.205930348258703</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>9.286077344877341</v>
+        <v>9.136000000000003</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>9.27522401237756</v>
+        <v>9.140398009950232</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07666243386243381</v>
+        <v>0.1600000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>33.95768297258299</v>
+        <v>34.2</v>
       </c>
       <c r="D41" t="n">
-        <v>17.05576119402985</v>
+        <v>17.24127363184079</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9215058509223837</v>
+        <v>0.9159999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>39.06869513688924</v>
+        <v>39.50800000000002</v>
       </c>
       <c r="G41" t="n">
-        <v>17.14496959646214</v>
+        <v>17.82218905472635</v>
       </c>
       <c r="H41" t="n">
-        <v>0.844810966810966</v>
+        <v>0.636</v>
       </c>
       <c r="I41" t="n">
-        <v>44.49573492063492</v>
+        <v>45.96800000000001</v>
       </c>
       <c r="J41" t="n">
-        <v>5.065053352286179</v>
+        <v>5.261711442786057</v>
       </c>
       <c r="K41" t="n">
-        <v>0.003666666666666667</v>
+        <v>0.004</v>
       </c>
       <c r="L41" t="n">
-        <v>19.14852010582009</v>
+        <v>20.012</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>11.42808476820031</v>
+        <v>11.68320398009949</v>
       </c>
       <c r="B42" t="n">
-        <v>0.2625959212991567</v>
+        <v>0.3200000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>41.88345697766285</v>
+        <v>42.31999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>24.13584885564951</v>
+        <v>24.12125373134318</v>
       </c>
       <c r="E42" t="n">
-        <v>2.792573515808809</v>
+        <v>2.068</v>
       </c>
       <c r="F42" t="n">
-        <v>51.4337130653857</v>
+        <v>51.01600000000004</v>
       </c>
       <c r="G42" t="n">
-        <v>22.25001066060388</v>
+        <v>22.71371144278596</v>
       </c>
       <c r="H42" t="n">
-        <v>0.8185730545056822</v>
+        <v>0.9639999999999997</v>
       </c>
       <c r="I42" t="n">
-        <v>62.18780175817063</v>
+        <v>62.76800000000001</v>
       </c>
       <c r="J42" t="n">
-        <v>6.635985415539676</v>
+        <v>6.547860696517405</v>
       </c>
       <c r="K42" t="n">
-        <v>0.01655366737281631</v>
+        <v>0.036</v>
       </c>
       <c r="L42" t="n">
-        <v>27.52638634733458</v>
+        <v>25.50000000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>8.433060838736463</v>
+        <v>8.128597014925363</v>
       </c>
       <c r="B43" t="n">
-        <v>0.1539896569473325</v>
+        <v>0.216</v>
       </c>
       <c r="C43" t="n">
-        <v>29.97332852474323</v>
+        <v>29.58000000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>18.5319005922767</v>
+        <v>17.19391044776119</v>
       </c>
       <c r="E43" t="n">
-        <v>1.438711111111111</v>
+        <v>1.524</v>
       </c>
       <c r="F43" t="n">
-        <v>39.68417082209731</v>
+        <v>38.71200000000002</v>
       </c>
       <c r="G43" t="n">
-        <v>16.34561001852394</v>
+        <v>15.49647761194029</v>
       </c>
       <c r="H43" t="n">
-        <v>0.6489908464358148</v>
+        <v>0.6480000000000002</v>
       </c>
       <c r="I43" t="n">
-        <v>46.41053003185772</v>
+        <v>45.19600000000001</v>
       </c>
       <c r="J43" t="n">
-        <v>5.047504465766395</v>
+        <v>4.780119402985061</v>
       </c>
       <c r="K43" t="n">
-        <v>0.03983333333333335</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>20.43486924186925</v>
+        <v>18.968</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10.50193513035577</v>
+        <v>10.4731343283582</v>
       </c>
       <c r="B44" t="n">
-        <v>0.1648921654142791</v>
+        <v>0.2599999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>39.84987852285657</v>
+        <v>40.27999999999998</v>
       </c>
       <c r="D44" t="n">
-        <v>20.8664442786068</v>
+        <v>20.66921393034811</v>
       </c>
       <c r="E44" t="n">
-        <v>1.028459609040197</v>
+        <v>1.188000000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>44.74482349334471</v>
+        <v>44.23999999999998</v>
       </c>
       <c r="G44" t="n">
-        <v>19.96589879702011</v>
+        <v>19.44913432835814</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5649388552129706</v>
+        <v>0.8679999999999995</v>
       </c>
       <c r="I44" t="n">
-        <v>54.68755530407846</v>
+        <v>53.56399999999999</v>
       </c>
       <c r="J44" t="n">
-        <v>5.833798496694</v>
+        <v>5.696736318407948</v>
       </c>
       <c r="K44" t="n">
-        <v>0.07242334316247355</v>
+        <v>0.028</v>
       </c>
       <c r="L44" t="n">
-        <v>22.98048750508753</v>
+        <v>23.544</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>11.38694958460525</v>
+        <v>11.2723383084577</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1170178979960629</v>
+        <v>0.1200000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>40.97709523809526</v>
+        <v>42.06800000000002</v>
       </c>
       <c r="D45" t="n">
-        <v>24.81948200160799</v>
+        <v>23.87395024875613</v>
       </c>
       <c r="E45" t="n">
-        <v>1.081583597883598</v>
+        <v>1.3</v>
       </c>
       <c r="F45" t="n">
-        <v>52.53146585925935</v>
+        <v>50.42400000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>23.39850685461577</v>
+        <v>24.38264676616905</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7072014924395923</v>
+        <v>1.031999999999999</v>
       </c>
       <c r="I45" t="n">
-        <v>62.40429185639557</v>
+        <v>63.50400000000003</v>
       </c>
       <c r="J45" t="n">
-        <v>6.870114518676456</v>
+        <v>6.826925373134321</v>
       </c>
       <c r="K45" t="n">
-        <v>0.05072910052910056</v>
+        <v>0.05600000000000001</v>
       </c>
       <c r="L45" t="n">
-        <v>27.1875015403287</v>
+        <v>27.54800000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>11.65805091897777</v>
+        <v>11.77964179104476</v>
       </c>
       <c r="B46" t="n">
-        <v>0.03198413356852987</v>
+        <v>0.108</v>
       </c>
       <c r="C46" t="n">
-        <v>45.03589758313581</v>
+        <v>45.80399999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>23.83345821326258</v>
+        <v>23.47755223880587</v>
       </c>
       <c r="E46" t="n">
-        <v>1.317163852120468</v>
+        <v>1.452</v>
       </c>
       <c r="F46" t="n">
-        <v>52.52910271987218</v>
+        <v>50.59999999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>24.14526654682327</v>
+        <v>23.54803980099493</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8821880235460007</v>
+        <v>0.5959999999999996</v>
       </c>
       <c r="I46" t="n">
-        <v>63.50516893575342</v>
+        <v>62.14800000000002</v>
       </c>
       <c r="J46" t="n">
-        <v>6.309916462862724</v>
+        <v>6.182606965174117</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>24.51944034418738</v>
+        <v>25.07599999999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>12.90848104765732</v>
+        <v>12.99016915422885</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1679214777871742</v>
+        <v>0.292</v>
       </c>
       <c r="C47" t="n">
-        <v>45.87057326138773</v>
+        <v>45.352</v>
       </c>
       <c r="D47" t="n">
-        <v>25.75999971903874</v>
+        <v>25.97828855721379</v>
       </c>
       <c r="E47" t="n">
-        <v>1.26000498511574</v>
+        <v>1.688000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>57.40260863750417</v>
+        <v>57.34799999999998</v>
       </c>
       <c r="G47" t="n">
-        <v>25.02249322979396</v>
+        <v>25.61892537313418</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9100728514122534</v>
+        <v>0.9199999999999993</v>
       </c>
       <c r="I47" t="n">
-        <v>68.59739093403827</v>
+        <v>69.53200000000001</v>
       </c>
       <c r="J47" t="n">
-        <v>7.091647340297341</v>
+        <v>6.969791044776112</v>
       </c>
       <c r="K47" t="n">
-        <v>0.05633863541368489</v>
+        <v>0.012</v>
       </c>
       <c r="L47" t="n">
-        <v>27.0075191517609</v>
+        <v>27.23600000000001</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>8.588619461695789</v>
+        <v>8.624796019900485</v>
       </c>
       <c r="B48" t="n">
-        <v>0.07419574176921766</v>
+        <v>0.16</v>
       </c>
       <c r="C48" t="n">
-        <v>31.35885592185591</v>
+        <v>31.73199999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>19.13022686567162</v>
+        <v>19.03582089552237</v>
       </c>
       <c r="E48" t="n">
-        <v>1.066636748436747</v>
+        <v>1.156000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>41.35831391571391</v>
+        <v>41.372</v>
       </c>
       <c r="G48" t="n">
-        <v>18.58154528942585</v>
+        <v>18.33410945273632</v>
       </c>
       <c r="H48" t="n">
-        <v>0.5676162280562824</v>
+        <v>0.6399999999999997</v>
       </c>
       <c r="I48" t="n">
-        <v>48.50471365856367</v>
+        <v>48.01999999999997</v>
       </c>
       <c r="J48" t="n">
-        <v>4.977806795388132</v>
+        <v>5.060716417910442</v>
       </c>
       <c r="K48" t="n">
-        <v>0.05211725659960955</v>
+        <v>0.024</v>
       </c>
       <c r="L48" t="n">
-        <v>21.24545702445704</v>
+        <v>21.03199999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3.713005302090669</v>
+        <v>3.869213930348244</v>
       </c>
       <c r="B49" t="n">
-        <v>0.005303703703703705</v>
+        <v>0.004</v>
       </c>
       <c r="C49" t="n">
-        <v>14.3808051948052</v>
+        <v>14.56000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>7.70149283740029</v>
+        <v>8.035641791044764</v>
       </c>
       <c r="E49" t="n">
-        <v>0.3452959244459243</v>
+        <v>0.4319999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>18.83825631960631</v>
+        <v>20.172</v>
       </c>
       <c r="G49" t="n">
-        <v>7.229955329174238</v>
+        <v>7.618467661691535</v>
       </c>
       <c r="H49" t="n">
-        <v>0.2039896218160923</v>
+        <v>0.2279999999999999</v>
       </c>
       <c r="I49" t="n">
-        <v>21.17355411985675</v>
+        <v>22.14</v>
       </c>
       <c r="J49" t="n">
-        <v>2.089270319039712</v>
+        <v>2.084616915422874</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>9.358774481074491</v>
+        <v>8.799999999999997</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5.147294691709607</v>
+        <v>5.365711442786059</v>
       </c>
       <c r="B50" t="n">
-        <v>0.002522482348569305</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>18.72</v>
+        <v>20.248</v>
       </c>
       <c r="D50" t="n">
-        <v>10.93107960199004</v>
+        <v>11.08889552238805</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8596598290598301</v>
+        <v>0.5799999999999998</v>
       </c>
       <c r="F50" t="n">
-        <v>25.27670348583879</v>
+        <v>26.424</v>
       </c>
       <c r="G50" t="n">
-        <v>10.60287562189053</v>
+        <v>10.80308457711443</v>
       </c>
       <c r="H50" t="n">
-        <v>0.1287333333333333</v>
+        <v>0.172</v>
       </c>
       <c r="I50" t="n">
-        <v>30.74905614352966</v>
+        <v>31.81599999999999</v>
       </c>
       <c r="J50" t="n">
-        <v>2.646085449943254</v>
+        <v>2.768756218905462</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>11.18502222222223</v>
+        <v>11.84399999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2.618413985202659</v>
+        <v>2.671741293532325</v>
       </c>
       <c r="B51" t="n">
-        <v>0.005333333333333334</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>11.37163650793651</v>
+        <v>11.336</v>
       </c>
       <c r="D51" t="n">
-        <v>4.634211940298503</v>
+        <v>4.989970149253723</v>
       </c>
       <c r="E51" t="n">
-        <v>0.05978664799253035</v>
+        <v>0.09200000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>12.80875409481586</v>
+        <v>13.756</v>
       </c>
       <c r="G51" t="n">
-        <v>4.43742612191566</v>
+        <v>4.559422885572131</v>
       </c>
       <c r="H51" t="n">
-        <v>0.04866459422930012</v>
+        <v>0.03999999999999999</v>
       </c>
       <c r="I51" t="n">
-        <v>14.78203120768121</v>
+        <v>14.512</v>
       </c>
       <c r="J51" t="n">
-        <v>1.448733039569606</v>
+        <v>1.438507462686566</v>
       </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>6.955428275428272</v>
+        <v>6.424000000000004</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>11.54183612906895</v>
+        <v>12.01834825870647</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1734496365201712</v>
+        <v>0.2399999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>43.82438063730215</v>
+        <v>45.69600000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>23.28532361999516</v>
+        <v>23.26197014925364</v>
       </c>
       <c r="E52" t="n">
-        <v>1.108155213435802</v>
+        <v>1.311999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>49.89091393916381</v>
+        <v>50.21999999999998</v>
       </c>
       <c r="G52" t="n">
-        <v>22.52137871525005</v>
+        <v>22.34997014925366</v>
       </c>
       <c r="H52" t="n">
-        <v>0.6127787238467033</v>
+        <v>0.9800000000000001</v>
       </c>
       <c r="I52" t="n">
-        <v>60.83732874281928</v>
+        <v>61.30799999999999</v>
       </c>
       <c r="J52" t="n">
-        <v>6.43985345594151</v>
+        <v>6.406845771144265</v>
       </c>
       <c r="K52" t="n">
-        <v>0.06580386264299305</v>
+        <v>0.044</v>
       </c>
       <c r="L52" t="n">
-        <v>23.76175418003015</v>
+        <v>24.79600000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>9.165364595632456</v>
+        <v>8.417134328358205</v>
       </c>
       <c r="B53" t="n">
-        <v>0.07838303638674478</v>
+        <v>0.06800000000000002</v>
       </c>
       <c r="C53" t="n">
-        <v>32.68919999999997</v>
+        <v>31.35199999999998</v>
       </c>
       <c r="D53" t="n">
-        <v>19.68714626865667</v>
+        <v>18.69146268656713</v>
       </c>
       <c r="E53" t="n">
-        <v>1.144656084656083</v>
+        <v>1.26</v>
       </c>
       <c r="F53" t="n">
-        <v>41.31639083879084</v>
+        <v>39.97600000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>18.19670244735912</v>
+        <v>18.0939303482587</v>
       </c>
       <c r="H53" t="n">
-        <v>0.7666865559739791</v>
+        <v>0.82</v>
       </c>
       <c r="I53" t="n">
-        <v>48.51169467199469</v>
+        <v>48.71199999999999</v>
       </c>
       <c r="J53" t="n">
-        <v>5.503709452736315</v>
+        <v>5.191343283582082</v>
       </c>
       <c r="K53" t="n">
-        <v>0.05645116713352009</v>
+        <v>0.07600000000000003</v>
       </c>
       <c r="L53" t="n">
-        <v>22.05545454545457</v>
+        <v>21.02</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>3.417360011774706</v>
+        <v>3.643800995024867</v>
       </c>
       <c r="B54" t="n">
-        <v>0.006000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>13.88986666666667</v>
+        <v>14.63600000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>7.291621930032363</v>
+        <v>7.467820895522379</v>
       </c>
       <c r="E54" t="n">
-        <v>0.7180560439560425</v>
+        <v>0.664</v>
       </c>
       <c r="F54" t="n">
-        <v>18.4544616600502</v>
+        <v>18.46000000000001</v>
       </c>
       <c r="G54" t="n">
-        <v>6.631578723432439</v>
+        <v>7.183383084577105</v>
       </c>
       <c r="H54" t="n">
-        <v>0.2247878954378952</v>
+        <v>0.28</v>
       </c>
       <c r="I54" t="n">
-        <v>22.37565373246466</v>
+        <v>21.98799999999999</v>
       </c>
       <c r="J54" t="n">
-        <v>2.05544490247176</v>
+        <v>2.059422885572134</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>8.395500000000009</v>
+        <v>8.399999999999995</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>4.713857271308009</v>
+        <v>4.679164179104466</v>
       </c>
       <c r="B55" t="n">
-        <v>0.04497659105027527</v>
+        <v>0.07200000000000002</v>
       </c>
       <c r="C55" t="n">
-        <v>17.797</v>
+        <v>18.724</v>
       </c>
       <c r="D55" t="n">
-        <v>10.29507742241174</v>
+        <v>10.11966169154228</v>
       </c>
       <c r="E55" t="n">
-        <v>0.8688195360195351</v>
+        <v>0.8120000000000005</v>
       </c>
       <c r="F55" t="n">
-        <v>24.18143333376862</v>
+        <v>23.756</v>
       </c>
       <c r="G55" t="n">
-        <v>8.984746584537612</v>
+        <v>9.412238805970139</v>
       </c>
       <c r="H55" t="n">
-        <v>0.3975603785103786</v>
+        <v>0.4120000000000001</v>
       </c>
       <c r="I55" t="n">
-        <v>29.1722027426392</v>
+        <v>28.472</v>
       </c>
       <c r="J55" t="n">
-        <v>2.824816627389359</v>
+        <v>2.757213930348251</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>11.01602962962963</v>
+        <v>11.01200000000001</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>11.58558649680896</v>
+        <v>11.63076616915422</v>
       </c>
       <c r="B56" t="n">
-        <v>0.2414661960221807</v>
+        <v>0.2239999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>43.2581080125413</v>
+        <v>44.256</v>
       </c>
       <c r="D56" t="n">
-        <v>25.16159340514459</v>
+        <v>25.11000995024865</v>
       </c>
       <c r="E56" t="n">
-        <v>1.574002900694078</v>
+        <v>1.48</v>
       </c>
       <c r="F56" t="n">
-        <v>54.13929660631067</v>
+        <v>53.97599999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>24.46456136878009</v>
+        <v>24.30748258706456</v>
       </c>
       <c r="H56" t="n">
-        <v>0.781934776417016</v>
+        <v>0.912</v>
       </c>
       <c r="I56" t="n">
-        <v>65.02981210040414</v>
+        <v>64.72000000000001</v>
       </c>
       <c r="J56" t="n">
-        <v>6.564359237423295</v>
+        <v>6.585492537313424</v>
       </c>
       <c r="K56" t="n">
-        <v>0.05409055446779745</v>
+        <v>0.052</v>
       </c>
       <c r="L56" t="n">
-        <v>26.96817443095966</v>
+        <v>26.572</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>12.37831313534479</v>
+        <v>11.60799999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2470544869932655</v>
+        <v>0.18</v>
       </c>
       <c r="C57" t="n">
-        <v>46.28083797778654</v>
+        <v>43.79200000000002</v>
       </c>
       <c r="D57" t="n">
-        <v>26.0352650423303</v>
+        <v>25.77263681592032</v>
       </c>
       <c r="E57" t="n">
-        <v>1.709824654430538</v>
+        <v>1.608000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>54.50309716834045</v>
+        <v>55.14400000000003</v>
       </c>
       <c r="G57" t="n">
-        <v>24.44895628681499</v>
+        <v>24.46155223880588</v>
       </c>
       <c r="H57" t="n">
-        <v>0.7030764307499843</v>
+        <v>0.7080000000000003</v>
       </c>
       <c r="I57" t="n">
-        <v>66.61170890062422</v>
+        <v>66.01200000000001</v>
       </c>
       <c r="J57" t="n">
-        <v>6.670025936253633</v>
+        <v>6.702149253731339</v>
       </c>
       <c r="K57" t="n">
-        <v>0.03286050788102393</v>
+        <v>0.06400000000000002</v>
       </c>
       <c r="L57" t="n">
-        <v>25.34510576786984</v>
+        <v>27.036</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>5.012396800214701</v>
+        <v>5.130646766169146</v>
       </c>
       <c r="B58" t="n">
-        <v>0.02369195089172207</v>
+        <v>0.032</v>
       </c>
       <c r="C58" t="n">
-        <v>19.94586666666667</v>
+        <v>20.34800000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>10.65991011608622</v>
+        <v>10.89056716417909</v>
       </c>
       <c r="E58" t="n">
-        <v>0.6316074481074474</v>
+        <v>0.6760000000000003</v>
       </c>
       <c r="F58" t="n">
-        <v>24.4946510086863</v>
+        <v>25.164</v>
       </c>
       <c r="G58" t="n">
-        <v>11.30417158651187</v>
+        <v>10.86891542288556</v>
       </c>
       <c r="H58" t="n">
-        <v>0.4514068986568984</v>
+        <v>0.4720000000000002</v>
       </c>
       <c r="I58" t="n">
-        <v>30.8251525721011</v>
+        <v>31.31199999999999</v>
       </c>
       <c r="J58" t="n">
-        <v>2.968110325565145</v>
+        <v>2.974308457711433</v>
       </c>
       <c r="K58" t="n">
-        <v>0.025</v>
+        <v>0.012</v>
       </c>
       <c r="L58" t="n">
-        <v>12.37135396825395</v>
+        <v>12.616</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>11.01289480665434</v>
+        <v>11.27623880597013</v>
       </c>
       <c r="B59" t="n">
-        <v>0.2870858488160534</v>
+        <v>0.176</v>
       </c>
       <c r="C59" t="n">
-        <v>39.02155683986121</v>
+        <v>39.488</v>
       </c>
       <c r="D59" t="n">
-        <v>22.76495546079119</v>
+        <v>22.33379104477601</v>
       </c>
       <c r="E59" t="n">
-        <v>1.04721466454715</v>
+        <v>1.103999999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>49.50779644316993</v>
+        <v>48.36400000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>22.54771120273455</v>
+        <v>22.34505472636806</v>
       </c>
       <c r="H59" t="n">
-        <v>0.7378497857728245</v>
+        <v>0.516</v>
       </c>
       <c r="I59" t="n">
-        <v>60.97860620489535</v>
+        <v>62.04799999999996</v>
       </c>
       <c r="J59" t="n">
-        <v>6.079747887546383</v>
+        <v>5.910328358208947</v>
       </c>
       <c r="K59" t="n">
-        <v>0.004809866729015666</v>
+        <v>0.004</v>
       </c>
       <c r="L59" t="n">
-        <v>26.83098691970797</v>
+        <v>23.012</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3.725088158086171</v>
+        <v>4.321651741293521</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0002666666666666667</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>17.612</v>
+        <v>18.44</v>
       </c>
       <c r="D60" t="n">
-        <v>8.161578204217001</v>
+        <v>8.67534328358208</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6285931623931621</v>
+        <v>0.5960000000000004</v>
       </c>
       <c r="F60" t="n">
-        <v>20.27234145114146</v>
+        <v>22.14799999999999</v>
       </c>
       <c r="G60" t="n">
-        <v>7.58084908789384</v>
+        <v>8.108537313432821</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06911428571428574</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="I60" t="n">
-        <v>23.51231713050452</v>
+        <v>25.776</v>
       </c>
       <c r="J60" t="n">
-        <v>2.065014021164013</v>
+        <v>2.230567164179094</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>8.745044444444453</v>
+        <v>10.36</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>11.92640277374676</v>
+        <v>12.34809950248755</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2822013875434705</v>
+        <v>0.316</v>
       </c>
       <c r="C61" t="n">
-        <v>45.29461740612328</v>
+        <v>46.964</v>
       </c>
       <c r="D61" t="n">
-        <v>25.53515588533991</v>
+        <v>25.80831840796009</v>
       </c>
       <c r="E61" t="n">
-        <v>2.941722966358259</v>
+        <v>2.44</v>
       </c>
       <c r="F61" t="n">
-        <v>55.07066943272826</v>
+        <v>54.32</v>
       </c>
       <c r="G61" t="n">
-        <v>23.78603897430131</v>
+        <v>23.34384079601984</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8651486196481271</v>
+        <v>1.04</v>
       </c>
       <c r="I61" t="n">
-        <v>65.936050985216</v>
+        <v>66.11599999999997</v>
       </c>
       <c r="J61" t="n">
-        <v>7.003548871455926</v>
+        <v>7.004378109452728</v>
       </c>
       <c r="K61" t="n">
-        <v>0.03948116238780645</v>
+        <v>0.048</v>
       </c>
       <c r="L61" t="n">
-        <v>29.1401869420443</v>
+        <v>27.69599999999999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>11.42808476820031</v>
+        <v>11.36197014925373</v>
       </c>
       <c r="B62" t="n">
-        <v>0.2424215509944767</v>
+        <v>0.172</v>
       </c>
       <c r="C62" t="n">
-        <v>40.97987743589744</v>
+        <v>41.63999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>23.80137039585611</v>
+        <v>23.57613930348247</v>
       </c>
       <c r="E62" t="n">
-        <v>1.466594916086093</v>
+        <v>1.492</v>
       </c>
       <c r="F62" t="n">
-        <v>50.87012163911217</v>
+        <v>49.996</v>
       </c>
       <c r="G62" t="n">
-        <v>22.12328992697046</v>
+        <v>21.84419900497502</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7941000356891993</v>
+        <v>0.8400000000000003</v>
       </c>
       <c r="I62" t="n">
-        <v>61.79965976593512</v>
+        <v>59.30399999999999</v>
       </c>
       <c r="J62" t="n">
-        <v>6.320531190632469</v>
+        <v>6.199641791044766</v>
       </c>
       <c r="K62" t="n">
-        <v>0.003483909645163845</v>
+        <v>0.024</v>
       </c>
       <c r="L62" t="n">
-        <v>24.17841794611103</v>
+        <v>23.82</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>12.2963949938578</v>
+        <v>13.22445771144278</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4013333333333324</v>
+        <v>0.3600000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>49.09748282828282</v>
+        <v>50.456</v>
       </c>
       <c r="D63" t="n">
-        <v>25.30016374051585</v>
+        <v>25.80360199004965</v>
       </c>
       <c r="E63" t="n">
-        <v>1.69934814814815</v>
+        <v>1.619999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>55.5255623296626</v>
+        <v>55.7</v>
       </c>
       <c r="G63" t="n">
-        <v>24.18825682697613</v>
+        <v>23.91424875621881</v>
       </c>
       <c r="H63" t="n">
-        <v>0.6605368099392872</v>
+        <v>0.7400000000000007</v>
       </c>
       <c r="I63" t="n">
-        <v>66.50237693034985</v>
+        <v>67.74399999999999</v>
       </c>
       <c r="J63" t="n">
-        <v>6.875154738130857</v>
+        <v>6.81832835820895</v>
       </c>
       <c r="K63" t="n">
-        <v>0.02917777777777779</v>
+        <v>0.06400000000000002</v>
       </c>
       <c r="L63" t="n">
-        <v>28.71098069397283</v>
+        <v>29.41200000000001</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>3.718859302364778</v>
+        <v>3.962189054726356</v>
       </c>
       <c r="B64" t="n">
-        <v>0.001333333333333334</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>16.36457142857144</v>
+        <v>16.28400000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>8.056331106372891</v>
+        <v>8.308955223880588</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4027831094831099</v>
+        <v>0.5040000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>19.7359087307754</v>
+        <v>20.856</v>
       </c>
       <c r="G64" t="n">
-        <v>7.853838916528453</v>
+        <v>8.083303482587048</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1260142857142857</v>
+        <v>0.1200000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>23.26222030510769</v>
+        <v>24.01200000000001</v>
       </c>
       <c r="J64" t="n">
-        <v>2.079145861960034</v>
+        <v>2.229054726368148</v>
       </c>
       <c r="K64" t="n">
-        <v>0.0003333333333333334</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>8.681044444444455</v>
+        <v>9.667999999999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>12.65490409650967</v>
+        <v>12.72589054726367</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5281240019240019</v>
+        <v>0.3679999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>46.96824048601103</v>
+        <v>46.444</v>
       </c>
       <c r="D65" t="n">
-        <v>24.64994029850736</v>
+        <v>24.10654726368148</v>
       </c>
       <c r="E65" t="n">
-        <v>1.356876440184804</v>
+        <v>1.2</v>
       </c>
       <c r="F65" t="n">
-        <v>51.80535107162074</v>
+        <v>51.92000000000001</v>
       </c>
       <c r="G65" t="n">
-        <v>22.92264654073738</v>
+        <v>22.63858706467655</v>
       </c>
       <c r="H65" t="n">
-        <v>0.5896656242133073</v>
+        <v>0.7039999999999996</v>
       </c>
       <c r="I65" t="n">
-        <v>64.72607181379215</v>
+        <v>62.9</v>
       </c>
       <c r="J65" t="n">
-        <v>6.995397491155911</v>
+        <v>6.923761194029836</v>
       </c>
       <c r="K65" t="n">
-        <v>0.06819710327986189</v>
+        <v>0.07600000000000003</v>
       </c>
       <c r="L65" t="n">
-        <v>32.48045289525287</v>
+        <v>28.29600000000001</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>10.65416913175672</v>
+        <v>10.28268656716416</v>
       </c>
       <c r="B66" t="n">
-        <v>0.3810555555555548</v>
+        <v>0.3280000000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>35.96241478696741</v>
+        <v>35.70799999999998</v>
       </c>
       <c r="D66" t="n">
-        <v>22.36833616996597</v>
+        <v>22.4472437810945</v>
       </c>
       <c r="E66" t="n">
-        <v>1.428350762527234</v>
+        <v>1.036000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>48.2420388502966</v>
+        <v>49.764</v>
       </c>
       <c r="G66" t="n">
-        <v>21.24755389718067</v>
+        <v>21.92533333333326</v>
       </c>
       <c r="H66" t="n">
-        <v>0.5253065223121355</v>
+        <v>0.5800000000000002</v>
       </c>
       <c r="I66" t="n">
-        <v>57.54830164483356</v>
+        <v>56.82000000000004</v>
       </c>
       <c r="J66" t="n">
-        <v>5.521993422497897</v>
+        <v>5.49402985074626</v>
       </c>
       <c r="K66" t="n">
-        <v>0.001844444444444445</v>
+        <v>0.008</v>
       </c>
       <c r="L66" t="n">
-        <v>24.11453253968254</v>
+        <v>22.564</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>10.27877856960524</v>
+        <v>10.38244776119402</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1642929196378388</v>
+        <v>0.2160000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>40.07922015937282</v>
+        <v>40.57600000000003</v>
       </c>
       <c r="D67" t="n">
-        <v>22.37490190765557</v>
+        <v>22.5829452736318</v>
       </c>
       <c r="E67" t="n">
-        <v>2.186134776334774</v>
+        <v>2.243999999999999</v>
       </c>
       <c r="F67" t="n">
-        <v>47.60384757980238</v>
+        <v>47.804</v>
       </c>
       <c r="G67" t="n">
-        <v>19.53504421249088</v>
+        <v>19.94626865671637</v>
       </c>
       <c r="H67" t="n">
-        <v>0.8992349431161802</v>
+        <v>0.8439999999999995</v>
       </c>
       <c r="I67" t="n">
-        <v>55.66596192236132</v>
+        <v>56.44400000000003</v>
       </c>
       <c r="J67" t="n">
-        <v>5.970421811429223</v>
+        <v>6.165054726368155</v>
       </c>
       <c r="K67" t="n">
-        <v>0.03008607841907075</v>
+        <v>0.07600000000000003</v>
       </c>
       <c r="L67" t="n">
-        <v>25.41589569504568</v>
+        <v>25.33599999999999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>4.652557634571059</v>
+        <v>4.398686567164168</v>
       </c>
       <c r="B68" t="n">
-        <v>0.00408582995951417</v>
+        <v>0.004</v>
       </c>
       <c r="C68" t="n">
-        <v>17.43133333333334</v>
+        <v>17.04</v>
       </c>
       <c r="D68" t="n">
-        <v>9.189320208481391</v>
+        <v>9.248139303482574</v>
       </c>
       <c r="E68" t="n">
-        <v>0.4992805231805231</v>
+        <v>0.52</v>
       </c>
       <c r="F68" t="n">
-        <v>23.21487197660726</v>
+        <v>22.81200000000001</v>
       </c>
       <c r="G68" t="n">
-        <v>9.019470633604456</v>
+        <v>9.080019900497495</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1581955936220642</v>
+        <v>0.2240000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>25.98252541718688</v>
+        <v>26.3</v>
       </c>
       <c r="J68" t="n">
-        <v>2.442764530729805</v>
+        <v>2.426587064676609</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>10.08218597698598</v>
+        <v>9.836</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>12.77056156149517</v>
+        <v>12.4532935323383</v>
       </c>
       <c r="B69" t="n">
-        <v>0.2595915881142214</v>
+        <v>0.2639999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>46.54100455290323</v>
+        <v>46.268</v>
       </c>
       <c r="D69" t="n">
-        <v>26.75645293027053</v>
+        <v>26.40230845771133</v>
       </c>
       <c r="E69" t="n">
-        <v>1.58382102537985</v>
+        <v>1.684</v>
       </c>
       <c r="F69" t="n">
-        <v>57.8273375424595</v>
+        <v>56.30399999999999</v>
       </c>
       <c r="G69" t="n">
-        <v>24.49523828103369</v>
+        <v>24.42935323383072</v>
       </c>
       <c r="H69" t="n">
-        <v>0.8153485336537284</v>
+        <v>0.9279999999999994</v>
       </c>
       <c r="I69" t="n">
-        <v>68.12651019516926</v>
+        <v>65.15200000000003</v>
       </c>
       <c r="J69" t="n">
-        <v>6.919554869124502</v>
+        <v>6.811363184079593</v>
       </c>
       <c r="K69" t="n">
-        <v>0.06339630428294836</v>
+        <v>0.08000000000000002</v>
       </c>
       <c r="L69" t="n">
-        <v>27.3378675823589</v>
+        <v>26.432</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>3.780941196765371</v>
+        <v>3.825631840796007</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01544973544973545</v>
+        <v>0.016</v>
       </c>
       <c r="C70" t="n">
-        <v>14.16662929292929</v>
+        <v>14.288</v>
       </c>
       <c r="D70" t="n">
-        <v>8.706055058043106</v>
+        <v>8.172059701492527</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3701488455988453</v>
+        <v>0.348</v>
       </c>
       <c r="F70" t="n">
-        <v>21.03671892736893</v>
+        <v>19.916</v>
       </c>
       <c r="G70" t="n">
-        <v>8.172161483587347</v>
+        <v>7.928517412935312</v>
       </c>
       <c r="H70" t="n">
-        <v>0.0798403176287077</v>
+        <v>0.1480000000000001</v>
       </c>
       <c r="I70" t="n">
-        <v>24.08192163518456</v>
+        <v>23.95600000000001</v>
       </c>
       <c r="J70" t="n">
-        <v>2.186390579873408</v>
+        <v>2.066965174129349</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>9.66483157953158</v>
+        <v>8.651999999999999</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>7.098146771249747</v>
+        <v>6.974189054726364</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1671479189668711</v>
+        <v>0.06000000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>27.69877412358883</v>
+        <v>26.564</v>
       </c>
       <c r="D71" t="n">
-        <v>12.80036484245438</v>
+        <v>12.96604975124377</v>
       </c>
       <c r="E71" t="n">
-        <v>0.522949615199615</v>
+        <v>0.5279999999999998</v>
       </c>
       <c r="F71" t="n">
-        <v>29.74690250033191</v>
+        <v>29.39200000000002</v>
       </c>
       <c r="G71" t="n">
-        <v>12.72217689331122</v>
+        <v>12.46975124378108</v>
       </c>
       <c r="H71" t="n">
-        <v>0.3671978228276547</v>
+        <v>0.3079999999999999</v>
       </c>
       <c r="I71" t="n">
-        <v>36.6965221889222</v>
+        <v>35.31200000000002</v>
       </c>
       <c r="J71" t="n">
-        <v>3.95385118455342</v>
+        <v>3.703422885572132</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>15.11474175084175</v>
+        <v>14.23999999999999</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>8.004665869637018</v>
+        <v>8.111343283582082</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1333983995082096</v>
+        <v>0.112</v>
       </c>
       <c r="C72" t="n">
-        <v>29.04373333333332</v>
+        <v>29.68800000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>16.64455574508409</v>
+        <v>16.75685572139301</v>
       </c>
       <c r="E72" t="n">
-        <v>1.030581572372877</v>
+        <v>0.992</v>
       </c>
       <c r="F72" t="n">
-        <v>34.64355749461524</v>
+        <v>35.81199999999998</v>
       </c>
       <c r="G72" t="n">
-        <v>15.14679605364231</v>
+        <v>15.29691542288554</v>
       </c>
       <c r="H72" t="n">
-        <v>0.6169509697203963</v>
+        <v>0.5720000000000001</v>
       </c>
       <c r="I72" t="n">
-        <v>44.12391213863982</v>
+        <v>42.52000000000002</v>
       </c>
       <c r="J72" t="n">
-        <v>4.330344232439747</v>
+        <v>4.436218905472631</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>17.4755193917194</v>
+        <v>17.976</v>
       </c>
     </row>
   </sheetData>
